--- a/广丰周数据汇总/青岛+广丰项目周数据-每周四下午必交(3)(1).xlsx
+++ b/广丰周数据汇总/青岛+广丰项目周数据-每周四下午必交(3)(1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>城市</t>
   </si>
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="22">
@@ -96,46 +96,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,15 +118,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -169,6 +131,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,16 +156,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,14 +219,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,7 +260,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,13 +308,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,7 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,19 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,73 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,30 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,70 +480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,6 +502,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -573,6 +558,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7545454545455" defaultRowHeight="25" customHeight="1"/>
@@ -1441,19 +1441,31 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
       <c r="E6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10" t="str">
+        <v>42</v>
+      </c>
+      <c r="F6" s="8">
+        <v>79</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+      <c r="H6" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="I6" s="12">
         <v>1</v>
@@ -1480,19 +1492,31 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10" t="str">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12">
         <v>1</v>
@@ -1518,19 +1542,31 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
       <c r="E8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10" t="str">
+        <v>56</v>
+      </c>
+      <c r="F8" s="8">
+        <v>268</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="I8" s="12">
         <v>1</v>
@@ -1558,19 +1594,31 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
       <c r="E9" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10" t="str">
+        <v>63</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2702</v>
+      </c>
+      <c r="G9" s="7">
+        <v>750</v>
+      </c>
+      <c r="H9" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0.158730158730159</v>
       </c>
       <c r="I9" s="12">
         <v>1</v>
@@ -1598,19 +1646,31 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>13</v>
+      </c>
       <c r="E10" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10" t="str">
+        <v>98</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1058</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1650</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>0.13265306122449</v>
       </c>
       <c r="I10" s="12">
         <v>1</v>
